--- a/excelSheet/nhóm L2.xlsx
+++ b/excelSheet/nhóm L2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +436,105 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fullName</t>
+          <t>employeeId</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>teamName</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Loại</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>krId</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -532,633 +542,1107 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>100</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>80</v>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Phung Hoang</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>100</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>20</v>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Phung Hoang</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Phung Hoang</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>75</v>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
         <v>100</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>25</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>100</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>25</v>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Phung Hoang</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>test kpi 3 1</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>100</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>25</v>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>168</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Phung Hoang</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>test kpi 3 1</t>
+          <t>testphhe7 kpi 2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>testphhe7 kpi 2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi 2</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>EQUAL</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
         <v>100</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
+        <v>20</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>75</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="n">
         <v>25</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>No data</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>phh2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>80</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>KPI</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>abcd kpi test 21</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excelSheet/nhóm L2.xlsx
+++ b/excelSheet/nhóm L2.xlsx
@@ -492,12 +492,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="14" max="14"/>
-    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
     <col width="30" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
@@ -955,17 +956,17 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>test kpi 3 1</t>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>test kpi 3 1</t>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>test kpi 3 1</t>
+          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -997,7 +998,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L9" s="5" t="n">
         <v>0</v>
@@ -1021,17 +1022,17 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+          <t>test kpi 3 1</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+          <t>test kpi 3 1</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
+          <t>test kpi 3 1</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -1063,7 +1064,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>0</v>
@@ -1269,17 +1270,17 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>testphhe7 kpi</t>
+          <t>testphhe7 kpi 2</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>testphhe7 kpi</t>
+          <t>testphhe7 kpi 2</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>testphhe7 kpi</t>
+          <t>testphhe7 kpi 2</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -1311,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L15" s="5" t="n">
         <v>0</v>
@@ -1320,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="P15" s="5" t="n"/>
     </row>
@@ -1335,17 +1336,17 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>testphhe7 kpi 2</t>
+          <t>testphhe7 kpi</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>testphhe7 kpi 2</t>
+          <t>testphhe7 kpi</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>testphhe7 kpi 2</t>
+          <t>testphhe7 kpi</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1377,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>0</v>
@@ -1386,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="P16" s="5" t="n"/>
     </row>
@@ -1447,17 +1448,17 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>phhe7 kpi test 21</t>
+          <t>phhe7 kpi test 2</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>phhe7 kpi test 21</t>
+          <t>phhe7 kpi test 2</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>phhe7 kpi test 21</t>
+          <t>phhe7 kpi test 2</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1489,7 +1490,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L18" s="5" t="n">
         <v>0</v>
@@ -1498,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="P18" s="5" t="n"/>
     </row>
@@ -1513,17 +1514,17 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>phhe7 kpi test 2</t>
+          <t>phhe7 kpi test 21</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>phhe7 kpi test 2</t>
+          <t>phhe7 kpi test 21</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>phhe7 kpi test 2</t>
+          <t>phhe7 kpi test 21</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1555,7 +1556,7 @@
         <v>100</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>0</v>
@@ -1564,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="P19" s="5" t="n"/>
     </row>

--- a/excelSheet/nhóm L2.xlsx
+++ b/excelSheet/nhóm L2.xlsx
@@ -47,7 +47,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -70,6 +70,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00365072"/>
         <bgColor rgb="00365072"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4C639"/>
+        <bgColor rgb="00A4C639"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -111,6 +117,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -505,7 +517,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nhóm L2</t>
+          <t>nhóm L2</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -602,32 +614,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -639,494 +651,478 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="P4" s="7" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K5" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
+      <c r="L5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O5" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="P4" s="5" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="P5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="P6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="inlineStr"/>
+      <c r="O8" s="8" t="inlineStr"/>
+      <c r="P8" s="7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>test kpi 3 1</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="P9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J10" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K5" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
+      <c r="K10" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O10" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="P5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="n">
+      <c r="P10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v/>
+      </c>
+      <c r="K11" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="K6" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="P6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="P7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v/>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="inlineStr"/>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" s="5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới áp dụng vào các dự án</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Đảm bảo tiến độ và chất lượng nghiên cứu công nghệ mới generative AI áp dụng vào các dự án</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Đảm bảo hoàn thành 100% tiến độ áp dụng Chatbot, generative AI vào dự án Storybook/Low code được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="P9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>test kpi 3 1</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="P10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v/>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="n">
+      <c r="L11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8" t="n">
         <v>1008</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="8" t="n">
         <v>1008</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="7" t="n">
         <v/>
       </c>
     </row>
@@ -1226,32 +1222,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="6" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -1263,362 +1259,354 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>testphhe7 kpi</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="P15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>testphhe7 kpi 2</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>testphhe7 kpi 2</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>testphhe7 kpi 2</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F16" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="G16" s="7" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="5" t="inlineStr">
+      <c r="H16" s="7" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="5" t="inlineStr">
+      <c r="I16" s="7" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J16" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K16" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="L15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
+      <c r="L16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O16" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="P15" s="5" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="P16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v/>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8" t="inlineStr"/>
+      <c r="O17" s="8" t="inlineStr"/>
+      <c r="P17" s="7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>testphhe7 kpi</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>testphhe7 kpi</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>testphhe7 kpi</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 21</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F18" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="G18" s="7" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H16" s="5" t="inlineStr">
+      <c r="H18" s="7" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J18" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K16" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
+      <c r="K18" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="P16" s="5" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v/>
-      </c>
-      <c r="K17" s="6" t="n">
+      <c r="P18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>phhe7 kpi test 2</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>Báo cáo được CBQL confirm</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="L17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="inlineStr"/>
-      <c r="O17" s="6" t="inlineStr"/>
-      <c r="P17" s="5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 2</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 2</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 2</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H18" s="5" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="n">
+      <c r="K19" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="P19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="J20" s="7" t="n">
+        <v/>
+      </c>
+      <c r="K20" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="K18" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="P18" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 21</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 21</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>phhe7 kpi test 21</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>Báo cáo được CBQL confirm</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="O19" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="P19" s="5" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v/>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="n">
+      <c r="L20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>197</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="8" t="n">
         <v>198</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="7" t="n">
         <v/>
       </c>
     </row>
@@ -1718,32 +1706,32 @@
           <t>Điều kiện</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Norm</t>
         </is>
       </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
       </c>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="N23" s="6" t="inlineStr">
         <is>
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
@@ -1755,190 +1743,191 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F24" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="G24" s="7" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H24" s="5" t="inlineStr">
+      <c r="H24" s="7" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="I24" s="7" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="7" t="n">
         <v>85</v>
       </c>
-      <c r="L24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="O24" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="P24" s="5" t="n"/>
+      <c r="P24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>KPI</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t>abcd kpi test 21</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E25" s="7" t="inlineStr">
         <is>
           <t>Báo cáo được CBQL confirm</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F25" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="G25" s="7" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H25" s="5" t="inlineStr">
+      <c r="H25" s="7" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I25" s="5" t="inlineStr">
+      <c r="I25" s="7" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="L25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
+      <c r="L25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="O25" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="P25" s="5" t="n"/>
+      <c r="P25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v/>
-      </c>
-      <c r="K26" s="6" t="n">
+      <c r="A26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v/>
+      </c>
+      <c r="K26" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6" t="n">
+      <c r="L26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="P26" s="7" t="n">
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
